--- a/DevOpsNotes.xlsx
+++ b/DevOpsNotes.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Push based</t>
   </si>
@@ -272,6 +272,18 @@
   </si>
   <si>
     <t>git pull origin master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you want to commit a file or group of file and folders to the local repository , you need to add those to the index.To see what files have been added to the index run 'git status' commend.the files if are shown in red test it means those files have been modified since last commit but not yet added to the index.those in green text are added to the index. </t>
+  </si>
+  <si>
+    <t>git add 'filename' will add the file to the index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git commit -m "message"   will commit  all the files/folders (added to the index) to the local repository </t>
+  </si>
+  <si>
+    <t>if you want to add multiple files use 'git add -A' command. Also to commit all the files added to the index use 'git commit -a -m ""  ' command.</t>
   </si>
 </sst>
 </file>
@@ -626,10 +638,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,6 +753,26 @@
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/DevOpsNotes.xlsx
+++ b/DevOpsNotes.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>Push based</t>
   </si>
@@ -265,25 +265,308 @@
     <t>type git init --this will initoialise the repository and will crerate a .git folder.</t>
   </si>
   <si>
-    <t>Connect to a remote repo use - git remote add origin "https://github.com/chandradesale/devops.git"</t>
-  </si>
-  <si>
     <t>pull command updates the data from remote repo to the local repo.</t>
   </si>
   <si>
     <t>git pull origin master</t>
   </si>
   <si>
-    <t xml:space="preserve">If you want to commit a file or group of file and folders to the local repository , you need to add those to the index.To see what files have been added to the index run 'git status' commend.the files if are shown in red test it means those files have been modified since last commit but not yet added to the index.those in green text are added to the index. </t>
-  </si>
-  <si>
-    <t>git add 'filename' will add the file to the index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">git commit -m "message"   will commit  all the files/folders (added to the index) to the local repository </t>
-  </si>
-  <si>
-    <t>if you want to add multiple files use 'git add -A' command. Also to commit all the files added to the index use 'git commit -a -m ""  ' command.</t>
+    <t>Branching</t>
+  </si>
+  <si>
+    <t>Master branch always contains your production quality code.</t>
+  </si>
+  <si>
+    <t>when merging your code always ensure that you have already checked out into the destination branch and then run the git merge command.</t>
+  </si>
+  <si>
+    <t>if you want to commit a  file for the first you will have to add it to the index first using git add command. Subsequently using commit -a option it will first add it to index and then commit.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Connect to a remote repo use - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git remote add origin "https://github.com/chandradesale/devops.git"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git commit  -m "message"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   will commit  a single file (added to the index) to the local repository </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if you want to add multiple files use '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git add -A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' command. Also to commit all the files added to the index use '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git commit -a -m "msg txt"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  ' command.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>move from one branch to another '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git checkout branchname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>to create a new branch type '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git branch branchname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'   when a new branch is created it will retain all code structure from the master branch.susequent updates will only be applicable for that branch only.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>checkout to the destination branch and run command '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git merge branchname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git add 'filename'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will add the file to the index</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>git</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pull</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> actually copies all the new or changes files from central repo to master branch of local repo. While git </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fetch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pull the changes files into a new branch. So it may require to merge it will the master branch later on.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If you want to commit a file or group of file and folders to the local repository , you need to add those to the index.To see what files have been added to the index run '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">' commend.the files if are shown in red text it means those files have been modified since last commit but not yet added to the index.those in green text are added to the index. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Merging</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is a way to combine the work of different branches together.It allows to branch off, develop a new feature and combine it back in.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Rebasing is another way of merging but in a linear way. Its </t>
   </si>
 </sst>
 </file>
@@ -333,13 +616,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,10 +924,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:A36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,41 +1028,92 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/DevOpsNotes.xlsx
+++ b/DevOpsNotes.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>Push based</t>
   </si>
@@ -566,7 +566,82 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Rebasing is another way of merging but in a linear way. Its </t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rebasing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is another way of merging but in a linear way. Its You can merge a new branch on top of master using rebasing and it gives you cleaner history and more linear approach.</t>
+    </r>
+  </si>
+  <si>
+    <t>Pushing changes to remote repo</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">once you are ready to update the changes form local to repo repository use git push command. You can use SSH to connect to the remote repo. For that you need to create a SSH key using ssh-keygen. It creats a public key which need to be copied into your github -- setting--new SSH key. Once done from you git bash run command </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">git -T git@github.com </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>it will complete the ssh key setup process it the key will turn green in github account which means it's successfully authenticated.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>checkout to the master branch and run command</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> git push origin master</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> this will puch all the changes from your local repo master branch to the remote master branch.Same applied for any subbranch.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -616,7 +691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -625,6 +700,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -924,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A36"/>
+  <dimension ref="A1:A40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,6 +1187,21 @@
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
